--- a/suppxls/Scen_Par-CO2Price.xlsx
+++ b/suppxls/Scen_Par-CO2Price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B76BB08-DE54-4959-9542-932BCAC21ACC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA8B7DB-5B84-4931-8241-6759858C6A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="570" windowWidth="22185" windowHeight="15030" activeTab="1" xr2:uid="{E4274E74-7A86-476E-8D8F-2DC29368AA80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E4274E74-7A86-476E-8D8F-2DC29368AA80}"/>
   </bookViews>
   <sheets>
     <sheet name="CaseDesc" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -91,7 +94,7 @@
     <t>DON’T WRITE ANYTHING IN THESE COLUMNS</t>
   </si>
   <si>
-    <t>~InputCell: 1-5</t>
+    <t>~InputCell: 1-21</t>
   </si>
 </sst>
 </file>
@@ -815,7 +818,7 @@
       </c>
       <c r="C3" s="5" t="str">
         <f>"CO2 Price "&amp;TEXT(CO2Price!C6*1000,"000")&amp;" $/t"</f>
-        <v>CO2 Price 050 $/t</v>
+        <v>CO2 Price 000 $/t</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
@@ -824,7 +827,7 @@
       </c>
       <c r="C4" s="5" t="str">
         <f>"CO2 Price "&amp;TEXT(CO2Price!C7*1000,"000")&amp;" $/t"</f>
-        <v>CO2 Price 100 $/t</v>
+        <v>CO2 Price 025 $/t</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
@@ -834,7 +837,7 @@
       </c>
       <c r="C5" s="5" t="str">
         <f>"CO2 Price "&amp;TEXT(CO2Price!C8*1000,"000")&amp;" $/t"</f>
-        <v>CO2 Price 150 $/t</v>
+        <v>CO2 Price 050 $/t</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
@@ -844,7 +847,7 @@
       </c>
       <c r="C6" s="5" t="str">
         <f>"CO2 Price "&amp;TEXT(CO2Price!C9*1000,"000")&amp;" $/t"</f>
-        <v>CO2 Price 200 $/t</v>
+        <v>CO2 Price 075 $/t</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
@@ -854,7 +857,7 @@
       </c>
       <c r="C7" s="5" t="str">
         <f>"CO2 Price "&amp;TEXT(CO2Price!C10*1000,"000")&amp;" $/t"</f>
-        <v>CO2 Price 250 $/t</v>
+        <v>CO2 Price 100 $/t</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
@@ -959,10 +962,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0780C00F-4708-452C-A1D7-80FEB354B029}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +989,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1006,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>7</v>
@@ -1035,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>11</v>
@@ -1056,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="H8" t="s">
         <v>3</v>
@@ -1079,7 +1082,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H9" t="s">
         <v>3</v>
@@ -1088,10 +1091,12 @@
         <v>2020</v>
       </c>
       <c r="J9" s="13">
-        <v>0.01</v>
+        <f>J10/10</f>
+        <v>0</v>
       </c>
       <c r="K9" s="13">
-        <v>0.01</v>
+        <f>K10/10</f>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>13</v>
@@ -1102,7 +1107,7 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
@@ -1111,18 +1116,24 @@
         <v>2050</v>
       </c>
       <c r="J10" s="14">
-        <f>VLOOKUP(A2,$B$6:$C$10,2,FALSE)</f>
-        <v>0.25</v>
+        <f>VLOOKUP(A2,$B$6:$C$26,2,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K10" s="14">
         <f>J10</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>0.125</v>
+      </c>
       <c r="H11" t="s">
         <v>3</v>
       </c>
@@ -1137,6 +1148,126 @@
       </c>
       <c r="L11" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
